--- a/EFA_results.xlsx
+++ b/EFA_results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lintu\Documents\Adolescent_psychiatric_prevalence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96739F99-2CA9-427D-9C4E-B9CE1CF9AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93A8075-A184-4F96-B593-3C752509DA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PQB" sheetId="1" r:id="rId1"/>
+    <sheet name="BDI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>f1</t>
   </si>
@@ -196,13 +197,185 @@
   </si>
   <si>
     <t>Lower than .3 factor loadings are hidden for a clearer view.</t>
+  </si>
+  <si>
+    <t>BDI1</t>
+  </si>
+  <si>
+    <t>BDI2</t>
+  </si>
+  <si>
+    <t>BDI3</t>
+  </si>
+  <si>
+    <t>BDI4</t>
+  </si>
+  <si>
+    <t>BDI5</t>
+  </si>
+  <si>
+    <t>BDI6</t>
+  </si>
+  <si>
+    <t>BDI7</t>
+  </si>
+  <si>
+    <t>BDI8</t>
+  </si>
+  <si>
+    <t>BDI9</t>
+  </si>
+  <si>
+    <t>BDI10</t>
+  </si>
+  <si>
+    <t>BDI11</t>
+  </si>
+  <si>
+    <t>BDI12</t>
+  </si>
+  <si>
+    <t>BDI13</t>
+  </si>
+  <si>
+    <t>BDI14</t>
+  </si>
+  <si>
+    <t>BDI15</t>
+  </si>
+  <si>
+    <t>BDI16</t>
+  </si>
+  <si>
+    <t>BDI17</t>
+  </si>
+  <si>
+    <t>BDI18</t>
+  </si>
+  <si>
+    <t>BDI19</t>
+  </si>
+  <si>
+    <t>BDI20</t>
+  </si>
+  <si>
+    <t>BDI21</t>
+  </si>
+  <si>
+    <t>1 factor</t>
+  </si>
+  <si>
+    <t>2 factor</t>
+  </si>
+  <si>
+    <t>3 factor</t>
+  </si>
+  <si>
+    <t>Oblimin rotated 1,2 and 3 EFA loadings for BDI-21</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>f13</t>
+  </si>
+  <si>
+    <t>f24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2] "Minusta tuntuu, että tulevaisuus on toivoton. En jaksa uskoa, että asiat muuttuvat tästä parempaan päin"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] "Minusta tuntuu, että olen täysin epäonnistunut ihmisenä"                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4] "Olen haluton ja tyytymätön kaikkeen"                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] "Tunnen olevani erittäin huono ja arvoton"                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6] "Tunnen, että olen tehnyt sellaista, josta minua on syytäkin rangaista"                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] "Vihaan itseäni"                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8] "Moitin itseäni kaikesta, mikä 'menee pieleen'"                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] "Tapan itseni, kun siihen tulee tilaisuus"                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] "Kykenin ennen itkemään, mutta nyt en pysty vaikka haluaisin"                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] "Minua eivät enää liikuta asiat, joista aiemmin raivostuin"                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] "Olen menettänyt kaiken mielenkiintoni muita kohtaan, enkä välitä heistä enää lainkaan"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] "En pysty enää lainkaan tekemään päätöksiä"                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] "Tunnen olevani ruma ja vastenmielisen näköinen"                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] "En kykene lainkaan tekemään työtä"                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] "Herään aikaisin joka aamu, enkä pysty nukkumaan viittä tuntia pitempään yhtäjaksoisesti"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] "Olen liian väsynyt tehdäkseni mitään"                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] "Minulla ei ole lainkaan ruokahalua"                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] "Olen laihtunut yli 7,5 kg"                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] "Terveyteni ja tuntemusteni ajatteleminen on kokonaan vallannut mieleni"                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] "Olen menettänyt kaiken mielenkiintoni sukupuolielämään"                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] "Olen niin onneton, etten enää kestä"                                                                    </t>
+  </si>
+  <si>
+    <t>srmr          0.038
+cfi.scaled    0.989
+rmsea.scaled  0.032</t>
+  </si>
+  <si>
+    <t>Loadings &lt; .3 are removed for a clearer view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             1 -factor
+srmr          0.054
+cfi.scaled    0.977
+rmsea.scaled  0.067
+             2-factor
+srmr          0.043
+cfi.scaled    0.989
+rmsea.scaled  0.049
+             3-factor
+srmr          0.033
+cfi.scaled    0.994
+rmsea.scaled  0.039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +389,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -246,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -256,17 +441,237 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -284,6 +689,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -309,25 +715,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -353,6 +741,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -378,6 +767,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -403,6 +793,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -410,6 +801,23 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -430,70 +838,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -510,6 +854,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -555,28 +900,22 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,19 +931,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C796974F-B17D-4809-85A4-783DA53ED0F4}" name="Table1" displayName="Table1" ref="B2:I23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C796974F-B17D-4809-85A4-783DA53ED0F4}" name="Table1" displayName="Table1" ref="B2:I23" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
   <autoFilter ref="B2:I23" xr:uid="{C796974F-B17D-4809-85A4-783DA53ED0F4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8896B73-754A-481D-9530-604A388F537B}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{367C0A46-3BD7-4258-8029-7F7761F18F35}" name="f1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{1788DC5C-D2EE-4DD7-AED6-86F96A6D0227}" name="f2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{014DB70F-0BA4-4182-A104-76ADBEA80797}" name="f3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FC02011C-302D-4496-9A49-5B6EE8522D23}" name="f4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F1432009-FDCE-4815-BF4A-EAAB6B6EC3C8}" name="f5" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{DDAEE220-24A3-4932-839A-7BC93EA240DA}" name="Intended" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{FBBDF94E-2B0F-4899-AEC3-895A4635B834}" name="Label" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B8896B73-754A-481D-9530-604A388F537B}" name="Variable" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{367C0A46-3BD7-4258-8029-7F7761F18F35}" name="f1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1788DC5C-D2EE-4DD7-AED6-86F96A6D0227}" name="f2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{014DB70F-0BA4-4182-A104-76ADBEA80797}" name="f3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{FC02011C-302D-4496-9A49-5B6EE8522D23}" name="f4" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F1432009-FDCE-4815-BF4A-EAAB6B6EC3C8}" name="f5" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{DDAEE220-24A3-4932-839A-7BC93EA240DA}" name="Intended" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{FBBDF94E-2B0F-4899-AEC3-895A4635B834}" name="Label" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{325630CE-5091-4640-B0F3-C2ABA0B9BC30}" name="Table2" displayName="Table2" ref="B3:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:I24" xr:uid="{325630CE-5091-4640-B0F3-C2ABA0B9BC30}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{40B11B6E-88B7-4740-80DA-7F5FB07A2F0A}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{68DEB407-8A2B-4B68-B13C-CDF2EEF90D8A}" name="f1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4776AC2E-59C5-469A-952F-E44D184E62B7}" name="f12" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7BD4FB52-9C13-4188-9270-0E68AD39A19E}" name="f2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1CA18DE2-EC44-4A6B-BA81-4BDB341AD814}" name="f13" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{8BA26149-6462-4D00-8B01-65A4E2C8E566}" name="f24" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{8EE302BE-8793-4E13-9E6A-565033A18FBA}" name="f3" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{1225346B-64B1-4880-9D0D-2DAC9B39C8E5}" name="Label" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -871,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,23 +1281,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.49299999999999999</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -951,23 +1307,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.437</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -977,23 +1333,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1003,23 +1359,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1029,23 +1385,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>0.58099999999999996</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1055,23 +1411,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1081,23 +1437,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1107,23 +1463,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>0.57899999999999996</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1133,23 +1489,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1159,23 +1515,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1185,23 +1541,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1211,23 +1567,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.67100000000000004</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1237,23 +1593,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>0.32800000000000001</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1263,23 +1619,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <v>0.34</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1289,23 +1645,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1315,23 +1671,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.43</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>0.32200000000000001</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1341,23 +1697,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.38800000000000001</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1367,23 +1723,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <v>0.82099999999999995</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1393,23 +1749,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>0.77</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1419,23 +1775,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1445,23 +1801,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
         <v>0.33</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1472,27 +1828,40 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G23">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1502,4 +1871,665 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EB3AB6-42D3-45BC-8A0D-6B371B28E50F}">
+  <dimension ref="B1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="11" style="9" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="97.85546875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.871</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.623</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.746</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.877</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.749</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.315</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.505</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:H24">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/EFA_results.xlsx
+++ b/EFA_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lintu\Documents\Adolescent_psychiatric_prevalence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93A8075-A184-4F96-B593-3C752509DA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05CBB5-A66A-4448-906A-733E9D9C91D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19560" yWindow="960" windowWidth="18435" windowHeight="16875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PQB" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>f1</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>3 factor</t>
-  </si>
-  <si>
-    <t>Oblimin rotated 1,2 and 3 EFA loadings for BDI-21</t>
   </si>
   <si>
     <t>Column1</t>
@@ -354,7 +351,13 @@
 rmsea.scaled  0.032</t>
   </si>
   <si>
-    <t>Loadings &lt; .3 are removed for a clearer view.</t>
+    <t>Steer -like CFA</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">             1 -factor
@@ -368,14 +371,45 @@
              3-factor
 srmr          0.033
 cfi.scaled    0.994
-rmsea.scaled  0.039</t>
+rmsea.scaled  0.039
+</t>
+  </si>
+  <si>
+    <t>CFA
+srmr 0.043
+cfi.scaled 0.988
+rmsea.scaled 0.055</t>
+  </si>
+  <si>
+    <t>Factor correlations</t>
+  </si>
+  <si>
+    <t>Oblimin rotated 1,2 and 3 EFA loadings for BDI-21
+CFA was done with WLSMV estimator, all items as categorical
+This analysis was replicated with promax rotation, as used in Steer (1998). The findings were practically the same.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loadings &lt; .3 are removed for a clearer view. </t>
+  </si>
+  <si>
+    <t>Loading matrix was specified according to the 3 factor EFA, which was similar to Steer (1998) findings.
+In Steer (1998) there was no CFA, only an ambiguous EFA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +429,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -427,33 +467,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -462,16 +505,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -485,6 +572,211 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -520,97 +812,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -628,30 +829,16 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -660,17 +847,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -804,60 +996,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -931,33 +1069,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C796974F-B17D-4809-85A4-783DA53ED0F4}" name="Table1" displayName="Table1" ref="B2:I23" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C796974F-B17D-4809-85A4-783DA53ED0F4}" name="Table1" displayName="Table1" ref="B2:I23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
   <autoFilter ref="B2:I23" xr:uid="{C796974F-B17D-4809-85A4-783DA53ED0F4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8896B73-754A-481D-9530-604A388F537B}" name="Variable" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{367C0A46-3BD7-4258-8029-7F7761F18F35}" name="f1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1788DC5C-D2EE-4DD7-AED6-86F96A6D0227}" name="f2" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{014DB70F-0BA4-4182-A104-76ADBEA80797}" name="f3" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FC02011C-302D-4496-9A49-5B6EE8522D23}" name="f4" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F1432009-FDCE-4815-BF4A-EAAB6B6EC3C8}" name="f5" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{DDAEE220-24A3-4932-839A-7BC93EA240DA}" name="Intended" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{FBBDF94E-2B0F-4899-AEC3-895A4635B834}" name="Label" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{B8896B73-754A-481D-9530-604A388F537B}" name="Variable" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{367C0A46-3BD7-4258-8029-7F7761F18F35}" name="f1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{1788DC5C-D2EE-4DD7-AED6-86F96A6D0227}" name="f2" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{014DB70F-0BA4-4182-A104-76ADBEA80797}" name="f3" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{FC02011C-302D-4496-9A49-5B6EE8522D23}" name="f4" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F1432009-FDCE-4815-BF4A-EAAB6B6EC3C8}" name="f5" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{DDAEE220-24A3-4932-839A-7BC93EA240DA}" name="Intended" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{FBBDF94E-2B0F-4899-AEC3-895A4635B834}" name="Label" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{325630CE-5091-4640-B0F3-C2ABA0B9BC30}" name="Table2" displayName="Table2" ref="B3:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B3:I24" xr:uid="{325630CE-5091-4640-B0F3-C2ABA0B9BC30}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{40B11B6E-88B7-4740-80DA-7F5FB07A2F0A}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{68DEB407-8A2B-4B68-B13C-CDF2EEF90D8A}" name="f1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4776AC2E-59C5-469A-952F-E44D184E62B7}" name="f12" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7BD4FB52-9C13-4188-9270-0E68AD39A19E}" name="f2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1CA18DE2-EC44-4A6B-BA81-4BDB341AD814}" name="f13" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8BA26149-6462-4D00-8B01-65A4E2C8E566}" name="f24" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{8EE302BE-8793-4E13-9E6A-565033A18FBA}" name="f3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{325630CE-5091-4640-B0F3-C2ABA0B9BC30}" name="Table2" displayName="Table2" ref="B3:L24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B3:L24" xr:uid="{325630CE-5091-4640-B0F3-C2ABA0B9BC30}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{40B11B6E-88B7-4740-80DA-7F5FB07A2F0A}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{68DEB407-8A2B-4B68-B13C-CDF2EEF90D8A}" name="f1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4776AC2E-59C5-469A-952F-E44D184E62B7}" name="f12" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7BD4FB52-9C13-4188-9270-0E68AD39A19E}" name="f2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1CA18DE2-EC44-4A6B-BA81-4BDB341AD814}" name="f13" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8BA26149-6462-4D00-8B01-65A4E2C8E566}" name="f24" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8EE302BE-8793-4E13-9E6A-565033A18FBA}" name="f3" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{98F67928-6501-4F42-8EEA-80D22454EA47}" name="1" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{ABC2D4FA-DBDC-44B3-B4F4-25CBC6C30A89}" name="2" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{572E54D0-6D31-4A74-8867-6E8DF33C8FF2}" name="3" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{1225346B-64B1-4880-9D0D-2DAC9B39C8E5}" name="Label" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1230,7 +1371,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,16 +1385,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -1285,19 +1426,19 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.49299999999999999</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1311,19 +1452,19 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.437</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1337,19 +1478,19 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1363,19 +1504,19 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1389,19 +1530,19 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>0.58099999999999996</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1415,19 +1556,19 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1441,19 +1582,19 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1467,19 +1608,19 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.57899999999999996</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1493,19 +1634,19 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1519,19 +1660,19 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1545,19 +1686,19 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1571,19 +1712,19 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.67100000000000004</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1597,19 +1738,19 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <v>0.32800000000000001</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1623,19 +1764,19 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <v>0.34</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1649,19 +1790,19 @@
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1675,19 +1816,19 @@
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.43</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>0.32200000000000001</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1701,19 +1842,19 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
         <v>0.38800000000000001</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1727,19 +1868,19 @@
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
         <v>0.82099999999999995</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1753,19 +1894,19 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.77</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1779,19 +1920,19 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1805,19 +1946,19 @@
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>0.33</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1828,28 +1969,28 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1858,10 +1999,10 @@
     <mergeCell ref="B25:I25"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G23">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1875,655 +2016,936 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EB3AB6-42D3-45BC-8A0D-6B371B28E50F}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="11" style="9" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="97.85546875" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11" style="6" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="6"/>
+    <col min="9" max="11" width="12.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="97.85546875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.878</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.871</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.871</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.623</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.746</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.877</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.749</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.749</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.315</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.505</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="J29" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.871</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.623</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.746</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.877</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.749</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.315</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.505</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="5">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="5">
+        <v>3</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:K26"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:H24">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C4:K24">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EFA_results.xlsx
+++ b/EFA_results.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lintu\Documents\Adolescent_psychiatric_prevalence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05CBB5-A66A-4448-906A-733E9D9C91D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635286C6-4BE0-474C-A72A-A7F3E52833FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="960" windowWidth="18435" windowHeight="16875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8655" yWindow="870" windowWidth="18435" windowHeight="16875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PQB" sheetId="1" r:id="rId1"/>
     <sheet name="BDI" sheetId="2" r:id="rId2"/>
+    <sheet name="CCA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>f1</t>
   </si>
@@ -404,12 +416,116 @@
     <t>Loading matrix was specified according to the 3 factor EFA, which was similar to Steer (1998) findings.
 In Steer (1998) there was no CFA, only an ambiguous EFA.</t>
   </si>
+  <si>
+    <t>Supplementary table 3. Canonical correlation analysis.</t>
+  </si>
+  <si>
+    <t>PQ-B Component</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <r>
+      <t>Regression coefficients</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item - Component correlation</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>PQ-B 1</t>
+  </si>
+  <si>
+    <t>PQ-B 2</t>
+  </si>
+  <si>
+    <t>PQ-B 3</t>
+  </si>
+  <si>
+    <t>BDI Component</t>
+  </si>
+  <si>
+    <t>BDI 1</t>
+  </si>
+  <si>
+    <t>BDI 2</t>
+  </si>
+  <si>
+    <t>BDI 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Correlation between first 3 components were 0.61, 0.25 and 0.23, respectively.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note sign is meaningless since components have arbitrary direction.
+Grid search using LOO-CV estimated shrinkage parameters of 0.69 and 0.56, for PQ-B and BDI component coefficients, respectively.</t>
+    </r>
+  </si>
+  <si>
+    <t>PQ-B 14</t>
+  </si>
+  <si>
+    <t>PQ-B 25</t>
+  </si>
+  <si>
+    <t>PQ-B 36</t>
+  </si>
+  <si>
+    <t>BDI 14</t>
+  </si>
+  <si>
+    <t>BDI 25</t>
+  </si>
+  <si>
+    <t>BDI 36</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +550,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -480,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -492,6 +621,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,35 +639,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -545,7 +736,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -585,7 +776,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -611,7 +802,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -646,34 +837,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1095,11 +1258,11 @@
     <tableColumn id="4" xr3:uid="{7BD4FB52-9C13-4188-9270-0E68AD39A19E}" name="f2" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{1CA18DE2-EC44-4A6B-BA81-4BDB341AD814}" name="f13" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{8BA26149-6462-4D00-8B01-65A4E2C8E566}" name="f24" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{8EE302BE-8793-4E13-9E6A-565033A18FBA}" name="f3" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{98F67928-6501-4F42-8EEA-80D22454EA47}" name="1" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{ABC2D4FA-DBDC-44B3-B4F4-25CBC6C30A89}" name="2" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{572E54D0-6D31-4A74-8867-6E8DF33C8FF2}" name="3" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{1225346B-64B1-4880-9D0D-2DAC9B39C8E5}" name="Label" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8EE302BE-8793-4E13-9E6A-565033A18FBA}" name="f3" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{98F67928-6501-4F42-8EEA-80D22454EA47}" name="1" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ABC2D4FA-DBDC-44B3-B4F4-25CBC6C30A89}" name="2" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{572E54D0-6D31-4A74-8867-6E8DF33C8FF2}" name="3" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1225346B-64B1-4880-9D0D-2DAC9B39C8E5}" name="Label" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1371,7 +1534,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,16 +1548,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -1969,28 +2132,28 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1999,10 +2162,10 @@
     <mergeCell ref="B25:I25"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2018,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EB3AB6-42D3-45BC-8A0D-6B371B28E50F}">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2033,20 +2196,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,20 +2217,20 @@
       <c r="C2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,13 +2255,13 @@
       <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="21" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -2109,31 +2272,31 @@
       <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="8">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="8">
         <v>0.4</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="8">
         <v>0.51100000000000001</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="8">
         <v>0.40300000000000002</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="8">
         <v>0.35299999999999998</v>
       </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
         <v>0.875</v>
       </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
         <v>0</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2144,31 +2307,31 @@
       <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="8">
         <v>0.48099999999999998</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="8">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="8">
         <v>0.43</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="8">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
         <v>0.83199999999999996</v>
       </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -2179,31 +2342,31 @@
       <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="8">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>0.71599999999999997</v>
       </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
         <v>0.878</v>
       </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -2214,31 +2377,31 @@
       <c r="B7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <v>0.83799999999999997</v>
       </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>0.74</v>
       </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
         <v>0.871</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="22">
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -2249,31 +2412,31 @@
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="8">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
         <v>0.91200000000000003</v>
       </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2284,31 +2447,31 @@
       <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="8">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.50600000000000001</v>
       </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
         <v>0.67800000000000005</v>
       </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -2319,31 +2482,31 @@
       <c r="B10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="8">
         <v>0.89700000000000002</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="8">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
         <v>0.90300000000000002</v>
       </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -2354,31 +2517,31 @@
       <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="8">
         <v>0.871</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <v>0.74299999999999999</v>
       </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
         <v>0.875</v>
       </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -2389,31 +2552,31 @@
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="8">
         <v>0.75700000000000001</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="8">
         <v>0.51500000000000001</v>
       </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>0.56599999999999995</v>
       </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
         <v>0.76100000000000001</v>
       </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
         <v>0</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -2424,31 +2587,31 @@
       <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="8">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
         <v>0.61499999999999999</v>
       </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>0.40100000000000002</v>
       </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
         <v>0.79200000000000004</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="22">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -2459,31 +2622,31 @@
       <c r="B14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.51700000000000002</v>
       </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
         <v>0.75700000000000001</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="22">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
@@ -2494,31 +2657,31 @@
       <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="8">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.623</v>
       </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
         <v>0.69099999999999995</v>
       </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
         <v>0.67600000000000005</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="22">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -2529,31 +2692,31 @@
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.52100000000000002</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="22">
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -2564,31 +2727,31 @@
       <c r="B17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="8">
         <v>0.746</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="8">
         <v>0.877</v>
       </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>0.88900000000000001</v>
       </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
         <v>0.749</v>
       </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
+      <c r="J17" s="22">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22">
         <v>0</v>
       </c>
       <c r="L17" s="6" t="s">
@@ -2599,31 +2762,31 @@
       <c r="B18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="8">
         <v>0.72399999999999998</v>
       </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>0.83</v>
       </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="22">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -2634,31 +2797,31 @@
       <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="8">
         <v>0.60099999999999998</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
         <v>0.34100000000000003</v>
       </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="22" t="s">
         <v>109</v>
       </c>
       <c r="L19" s="6" t="s">
@@ -2669,31 +2832,31 @@
       <c r="B20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
         <v>0.82</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="22">
         <v>0</v>
       </c>
       <c r="L20" s="6" t="s">
@@ -2704,31 +2867,31 @@
       <c r="B21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="8">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
         <v>0.749</v>
       </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
         <v>0.82199999999999995</v>
       </c>
       <c r="L21" s="6" t="s">
@@ -2739,31 +2902,31 @@
       <c r="B22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="8">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
         <v>0.68600000000000005</v>
       </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
         <v>0.46</v>
       </c>
       <c r="L22" s="6" t="s">
@@ -2774,31 +2937,31 @@
       <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="8">
         <v>0.52</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
         <v>0.315</v>
       </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
         <v>0.65600000000000003</v>
       </c>
       <c r="L23" s="6" t="s">
@@ -2809,31 +2972,31 @@
       <c r="B24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="8">
         <v>0.50700000000000001</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
         <v>0.505</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16" t="s">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="22" t="s">
         <v>109</v>
       </c>
       <c r="L24" s="6" t="s">
@@ -2841,36 +3004,36 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="2:12" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="12" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="14"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H29" s="5"/>
@@ -2924,12 +3087,12 @@
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2945,7 +3108,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4:K24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2954,4 +3117,1223 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE28841B-2C2F-4AB5-B43F-15E38E1371D4}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26">
+        <v>-0.21</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="26">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26">
+        <v>-0.72</v>
+      </c>
+      <c r="H5" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I5" s="26">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26">
+        <v>-0.2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
+        <v>-0.76</v>
+      </c>
+      <c r="H6" s="26">
+        <v>-0.22</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26">
+        <v>-0.2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>-0.35</v>
+      </c>
+      <c r="E7" s="26">
+        <v>-0.01</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
+        <v>-0.75</v>
+      </c>
+      <c r="H7" s="26">
+        <v>-0.33</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26">
+        <v>-0.17</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="26">
+        <v>-0.11</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26">
+        <v>-0.73</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26">
+        <v>-0.15</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="E9" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
+        <v>-0.73</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.23</v>
+      </c>
+      <c r="I9" s="26">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26">
+        <v>-0.11</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26">
+        <v>-0.46</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.36</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26">
+        <v>-0.09</v>
+      </c>
+      <c r="D11" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26">
+        <v>-0.32</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="E14" s="26">
+        <v>-0.33</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="D15" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
+        <v>-0.43</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
+        <v>-0.62</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="D17" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26">
+        <v>-0.54</v>
+      </c>
+      <c r="H17" s="26">
+        <v>-0.01</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="E18" s="26">
+        <v>-0.13</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
+        <v>-0.52</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="I18" s="26">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26">
+        <v>-0.53</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D20" s="26">
+        <v>-0.1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26">
+        <v>-0.49</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D21" s="26">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E21" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26">
+        <v>-0.49</v>
+      </c>
+      <c r="H21" s="26">
+        <v>-0.26</v>
+      </c>
+      <c r="I21" s="26">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="E22" s="26">
+        <v>-0.32</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
+        <v>-0.45</v>
+      </c>
+      <c r="H22" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="I22" s="26">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26">
+        <v>-0.01</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>-0.04</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26">
+        <v>-0.45</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26">
+        <v>-0.31</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26">
+        <v>-0.44</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26">
+        <v>-0.23</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="26">
+        <v>-0.17</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26">
+        <v>-0.47</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="I29" s="26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26">
+        <v>-0.19</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26">
+        <v>-0.5</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26">
+        <v>-0.19</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26">
+        <v>-0.49</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26">
+        <v>-0.11</v>
+      </c>
+      <c r="D32" s="26">
+        <v>-0.21</v>
+      </c>
+      <c r="E32" s="26">
+        <v>-0.16</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26">
+        <v>-0.49</v>
+      </c>
+      <c r="H32" s="26">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I32" s="26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26">
+        <v>-0.09</v>
+      </c>
+      <c r="D33" s="26">
+        <v>-0.24</v>
+      </c>
+      <c r="E33" s="26">
+        <v>-0.15</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26">
+        <v>-0.52</v>
+      </c>
+      <c r="H33" s="26">
+        <v>-0.16</v>
+      </c>
+      <c r="I33" s="26">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26">
+        <v>-0.09</v>
+      </c>
+      <c r="D34" s="26">
+        <v>-0.26</v>
+      </c>
+      <c r="E34" s="26">
+        <v>-0.04</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26">
+        <v>-0.46</v>
+      </c>
+      <c r="H34" s="26">
+        <v>-0.15</v>
+      </c>
+      <c r="I34" s="26">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26">
+        <v>-0.08</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26">
+        <v>-0.46</v>
+      </c>
+      <c r="H35" s="26">
+        <v>-0.04</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26">
+        <v>-0.08</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="E36" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26">
+        <v>-0.44</v>
+      </c>
+      <c r="H36" s="26">
+        <v>-0.01</v>
+      </c>
+      <c r="I36" s="26">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="26">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26">
+        <v>-0.01</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="I37" s="26">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+      <c r="E38" s="26">
+        <v>-0.11</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26">
+        <v>-0.44</v>
+      </c>
+      <c r="H38" s="26">
+        <v>-0.04</v>
+      </c>
+      <c r="I38" s="26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="E39" s="26">
+        <v>-0.19</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26">
+        <v>-0.49</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="D40" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="E40" s="26">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26">
+        <v>-0.38</v>
+      </c>
+      <c r="H40" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="I40" s="26">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="E41" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26">
+        <v>-0.27</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26">
+        <v>-0.04</v>
+      </c>
+      <c r="D42" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="26">
+        <v>-0.16</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26">
+        <v>-0.47</v>
+      </c>
+      <c r="H42" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="26">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="D43" s="26">
+        <v>-0.19</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26">
+        <v>-0.5</v>
+      </c>
+      <c r="H43" s="26">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I43" s="26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D44" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="E44" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26">
+        <v>-0.48</v>
+      </c>
+      <c r="H44" s="26">
+        <v>-0.17</v>
+      </c>
+      <c r="I44" s="26">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D45" s="26">
+        <v>-0.09</v>
+      </c>
+      <c r="E45" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26">
+        <v>-0.48</v>
+      </c>
+      <c r="H45" s="26">
+        <v>-0.1</v>
+      </c>
+      <c r="I45" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="26">
+        <v>-0.1</v>
+      </c>
+      <c r="E46" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26">
+        <v>-0.43</v>
+      </c>
+      <c r="H46" s="26">
+        <v>-0.09</v>
+      </c>
+      <c r="I46" s="26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D47" s="26">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E47" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26">
+        <v>-0.4</v>
+      </c>
+      <c r="H47" s="26">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I47" s="26">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26">
+        <v>-0.02</v>
+      </c>
+      <c r="D48" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26">
+        <v>-0.34</v>
+      </c>
+      <c r="H48" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26">
+        <v>0</v>
+      </c>
+      <c r="D49" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="E49" s="26">
+        <v>-0.26</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26">
+        <v>-0.45</v>
+      </c>
+      <c r="H49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="26">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:I27"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>